--- a/biology/Biologie cellulaire et moléculaire/Exoribonucléase/Exoribonucléase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Exoribonucléase/Exoribonucléase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exoribonucl%C3%A9ase</t>
+          <t>Exoribonucléase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exoribonucléases sont des enzymes à la fois de types exonucléases et ribonucléases, c'est-à-dire des enzymes qui dégradent l'ARN par élimination des nucléotides terminaux, soit à partir de l'extrémité 5', soit à partir de l'extrémité 3' de la molécule d'ARN. Les enzymes qui coupent les nucléotides à partir de l'extrémité 5' sont appelées des 5'-3' exoribonucléases et les enzymes qui coupent les nucléotides à partir de l'extrémité 3' sont appelés des 3'-5' exoribonucléases.
 Les exoribonucléases peuvent utiliser pour séparer les liaisons internucléotides soit l'eau (on parle alors d'activité hydrolytique) soit des phosphates inorganiques (on dit activité phosphorolytique). Les exoribonucléases hydrolytiques portent le numéro CE 3.1 et les exoribonucléases phosphorolytiques sous le numéro EC 2.7.7. L'utilisation d'enzymes phosphorolytiques (qui utilisent un phosphate inorganique comme cofacteur) aboutit à la libération de nucléotides disphosphates alors que les enzymes hydrolytiques (qui utilisent de l'eau comme cofacteur) aboutissent à la libération de nucléotides monosphosphates.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exoribonucl%C3%A9ase</t>
+          <t>Exoribonucléase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principales familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la biologie cellulaire et moléculaire                     </t>
         </is>
